--- a/Data/Entities/OpenNGS/OpenNGS.UI.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.UI.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D74E458-1D10-439D-946A-69ACE057B122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="3070" windowWidth="26850" windowHeight="16130" tabRatio="942" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="942" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="22" r:id="rId1"/>
@@ -21,23 +15,36 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="Rank">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="查询 - 新建文本文档" description="与工作簿中“新建文本文档”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=新建文本文档;Extended Properties=&quot;&quot;" command="SELECT * FROM [新建文本文档]"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="查询 - 新建文本文档" description="与工作簿中“新建文本文档”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=新建文本文档;Extended Properties=&quot;&quot;" command="SELECT * FROM [新建文本文档]" commandType="2"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="查询 - 新建文本文档 (2)" description="与工作簿中“新建文本文档 (2)”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;新建文本文档 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [新建文本文档 (2)]"/>
+  <connection id="2" name="查询 - 新建文本文档 (2)" description="与工作簿中“新建文本文档 (2)”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;新建文本文档 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [新建文本文档 (2)]" commandType="2"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>Package</t>
   </si>
@@ -69,6 +76,9 @@
     <t>列1</t>
   </si>
   <si>
+    <t>OpenNGS.UI.Common</t>
+  </si>
+  <si>
     <t>UI_SYSTEM</t>
   </si>
   <si>
@@ -93,9 +103,15 @@
     <t>UI LAYER</t>
   </si>
   <si>
+    <t>OpenNGS.UI.Data</t>
+  </si>
+  <si>
     <t>UIConfig</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
     <t>Struct</t>
   </si>
   <si>
@@ -195,6 +211,9 @@
     <t>SystemName</t>
   </si>
   <si>
+    <t>NGSText</t>
+  </si>
+  <si>
     <t>系统名称</t>
   </si>
   <si>
@@ -235,35 +254,20 @@
   </si>
   <si>
     <t>是否缓存</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.UI.Common</t>
-  </si>
-  <si>
-    <t>OpenNGS.UI.Common</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.UI.Data</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -292,12 +296,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,12 +456,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000" tint="0.59999389629810485"/>
+        <fgColor rgb="FF000000" tint="0.599993896298105"/>
+        <bgColor rgb="FF000000" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -362,14 +698,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -377,29 +713,271 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </right>
       <top style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39985351115451523"/>
+        <color theme="9" tint="0.399853511154515"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -410,7 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -419,7 +997,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -438,10 +1016,137 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -453,208 +1158,36 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.59999389629810485"/>
-          <bgColor rgb="FF000000" tint="0.59999389629810485"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.59999389629810485"/>
-          <bgColor rgb="FF000000" tint="0.59999389629810485"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79992065187536243"/>
-          <bgColor rgb="FF000000" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thick">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thick">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79992065187536243"/>
-          <bgColor rgb="FF000000" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical style="thin">
-          <color rgb="FFFFFFFF"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFFFF"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -665,7 +1198,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -693,13 +1226,115 @@
           <color rgb="FF000000"/>
         </bottom>
         <horizontal style="thin">
-          <color rgb="FF000000" tint="0.39994506668294322"/>
+          <color rgb="FF000000" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.599993896298105"/>
+          <bgColor rgb="FF000000" tint="0.599993896298105"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.599993896298105"/>
+          <bgColor rgb="FF000000" tint="0.599993896298105"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.799920651875362"/>
+          <bgColor rgb="FF000000" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.799920651875362"/>
+          <bgColor rgb="FF000000" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
         </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    </tableStyle>
+    <tableStyle name="TableStylePreset4_Dark 1" pivot="0" count="7" xr9:uid="{AA260838-E24B-40FB-8B94-08977E0F2D45}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="totalRow" dxfId="18"/>
@@ -708,86 +1343,74 @@
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset4_Dark 1" pivot="0" count="7" xr9:uid="{B1332616-6420-4207-B843-66B03BD8B928}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-    </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J4" totalsRowShown="0">
-  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Entities" displayName="Entities" ref="A1:J4" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J4" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Group"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SK"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TableType"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="列1"/>
+    <tableColumn id="1" name="Package"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Group"/>
+    <tableColumn id="4" name="Type"/>
+    <tableColumn id="5" name="Description"/>
+    <tableColumn id="6" name="Scope"/>
+    <tableColumn id="7" name="PK"/>
+    <tableColumn id="8" name="SK"/>
+    <tableColumn id="9" name="TableType"/>
+    <tableColumn id="10" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="UI_LAYER" displayName="UI_LAYER" ref="A3:F10" totalsRowShown="0">
-  <autoFilter ref="A3:F10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="UI_LAYER" displayName="UI_LAYER" ref="A3:F10" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F10" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tag" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Attributes" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Scope" dataDxfId="1"/>
+    <tableColumn id="1" name="Name" dataDxfId="0"/>
+    <tableColumn id="2" name="Type" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" name="Tag" dataDxfId="3"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="4"/>
+    <tableColumn id="6" name="Scope" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset4_Dark 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="UI_SYSTEM" displayName="UI_SYSTEM" ref="A14:F18" totalsRowShown="0">
-  <autoFilter ref="A14:F18" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="UI_SYSTEM" displayName="UI_SYSTEM" ref="A14:F18" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A14:F18" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="UIConfig" displayName="UIConfig" ref="A3:F13" totalsRowShown="0">
-  <autoFilter ref="A3:F13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="UIConfig" displayName="UIConfig" ref="A3:F13" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F13" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,27 +1668,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,81 +1720,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1179,33 +1802,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="44.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.16666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1666666666667" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1216,140 +1840,140 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,85 +1984,85 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" ht="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1447,9 +2071,9 @@
       <c r="F53" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -1458,25 +2082,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1487,202 +2112,202 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D4:D13">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
